--- a/DATA_goal/Junction_Flooding_457.xlsx
+++ b/DATA_goal/Junction_Flooding_457.xlsx
@@ -447,7 +447,7 @@
     <col width="6" customWidth="1" min="3" max="3"/>
     <col width="6" customWidth="1" min="4" max="4"/>
     <col width="7" customWidth="1" min="5" max="5"/>
-    <col width="6" customWidth="1" min="6" max="6"/>
+    <col width="7" customWidth="1" min="6" max="6"/>
     <col width="6" customWidth="1" min="7" max="7"/>
     <col width="7" customWidth="1" min="8" max="8"/>
     <col width="6" customWidth="1" min="9" max="9"/>
@@ -457,17 +457,17 @@
     <col width="6" customWidth="1" min="13" max="13"/>
     <col width="6" customWidth="1" min="14" max="14"/>
     <col width="6" customWidth="1" min="15" max="15"/>
-    <col width="6" customWidth="1" min="16" max="16"/>
+    <col width="7" customWidth="1" min="16" max="16"/>
     <col width="6" customWidth="1" min="17" max="17"/>
     <col width="6" customWidth="1" min="18" max="18"/>
     <col width="6" customWidth="1" min="19" max="19"/>
-    <col width="7" customWidth="1" min="20" max="20"/>
+    <col width="8" customWidth="1" min="20" max="20"/>
     <col width="7" customWidth="1" min="21" max="21"/>
     <col width="6" customWidth="1" min="22" max="22"/>
     <col width="6" customWidth="1" min="23" max="23"/>
     <col width="6" customWidth="1" min="24" max="24"/>
     <col width="6" customWidth="1" min="25" max="25"/>
-    <col width="6" customWidth="1" min="26" max="26"/>
+    <col width="7" customWidth="1" min="26" max="26"/>
     <col width="6" customWidth="1" min="27" max="27"/>
     <col width="6" customWidth="1" min="28" max="28"/>
     <col width="6" customWidth="1" min="29" max="29"/>
@@ -655,103 +655,103 @@
         <v>44788.54861111111</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>0.43</v>
+        <v>4.28</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>0.53</v>
+        <v>5.27</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>0.08</v>
+        <v>0.77</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>1.04</v>
+        <v>10.41</v>
       </c>
       <c r="F2" s="4" t="n">
+        <v>9.720000000000001</v>
+      </c>
+      <c r="G2" s="4" t="n">
+        <v>5.08</v>
+      </c>
+      <c r="H2" s="4" t="n">
+        <v>10.36</v>
+      </c>
+      <c r="I2" s="4" t="n">
+        <v>6.86</v>
+      </c>
+      <c r="J2" s="4" t="n">
+        <v>3.66</v>
+      </c>
+      <c r="K2" s="4" t="n">
+        <v>6.22</v>
+      </c>
+      <c r="L2" s="4" t="n">
+        <v>7.25</v>
+      </c>
+      <c r="M2" s="4" t="n">
+        <v>4.31</v>
+      </c>
+      <c r="N2" s="4" t="n">
         <v>0.97</v>
       </c>
-      <c r="G2" s="4" t="n">
-        <v>0.51</v>
-      </c>
-      <c r="H2" s="4" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="I2" s="4" t="n">
-        <v>0.6899999999999999</v>
-      </c>
-      <c r="J2" s="4" t="n">
+      <c r="O2" s="4" t="n">
+        <v>3.63</v>
+      </c>
+      <c r="P2" s="4" t="n">
+        <v>6.54</v>
+      </c>
+      <c r="Q2" s="4" t="n">
+        <v>2.61</v>
+      </c>
+      <c r="R2" s="4" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="S2" s="4" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="T2" s="4" t="n">
+        <v>60.45</v>
+      </c>
+      <c r="U2" s="4" t="n">
+        <v>12.19</v>
+      </c>
+      <c r="V2" s="4" t="n">
+        <v>3.56</v>
+      </c>
+      <c r="W2" s="4" t="n">
+        <v>7.36</v>
+      </c>
+      <c r="X2" s="4" t="n">
+        <v>6.73</v>
+      </c>
+      <c r="Y2" s="4" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="Z2" s="4" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="AA2" s="4" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AB2" s="4" t="n">
+        <v>5.54</v>
+      </c>
+      <c r="AC2" s="4" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="AD2" s="4" t="n">
+        <v>6.73</v>
+      </c>
+      <c r="AE2" s="4" t="n">
         <v>0.37</v>
       </c>
-      <c r="K2" s="4" t="n">
-        <v>0.62</v>
-      </c>
-      <c r="L2" s="4" t="n">
-        <v>0.72</v>
-      </c>
-      <c r="M2" s="4" t="n">
-        <v>0.43</v>
-      </c>
-      <c r="N2" s="4" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="O2" s="4" t="n">
-        <v>0.36</v>
-      </c>
-      <c r="P2" s="4" t="n">
-        <v>0.65</v>
-      </c>
-      <c r="Q2" s="4" t="n">
-        <v>0.26</v>
-      </c>
-      <c r="R2" s="4" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="S2" s="4" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="T2" s="4" t="n">
-        <v>6.05</v>
-      </c>
-      <c r="U2" s="4" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="V2" s="4" t="n">
-        <v>0.36</v>
-      </c>
-      <c r="W2" s="4" t="n">
-        <v>0.74</v>
-      </c>
-      <c r="X2" s="4" t="n">
-        <v>0.67</v>
-      </c>
-      <c r="Y2" s="4" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="Z2" s="4" t="n">
-        <v>0.57</v>
-      </c>
-      <c r="AA2" s="4" t="n">
-        <v>0.36</v>
-      </c>
-      <c r="AB2" s="4" t="n">
-        <v>0.55</v>
-      </c>
-      <c r="AC2" s="4" t="n">
-        <v>0.22</v>
-      </c>
-      <c r="AD2" s="4" t="n">
-        <v>0.67</v>
-      </c>
-      <c r="AE2" s="4" t="n">
-        <v>0.04</v>
-      </c>
       <c r="AF2" s="4" t="n">
-        <v>0.85</v>
+        <v>8.52</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>0.22</v>
+        <v>2.17</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>0.52</v>
+        <v>5.2</v>
       </c>
     </row>
     <row r="3">
@@ -759,52 +759,52 @@
         <v>44788.55555555555</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>0.02</v>
+        <v>0.22</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>0.1</v>
+        <v>1.02</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0.03</v>
+        <v>0.26</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>0.11</v>
+        <v>1.06</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>0.14</v>
+        <v>1.4</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>0.09</v>
+        <v>0.93</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>0.47</v>
+        <v>4.69</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>0.12</v>
+        <v>1.22</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>0.08</v>
+        <v>0.82</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>0.15</v>
+        <v>1.51</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>0.2</v>
+        <v>2.01</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>0.04</v>
+        <v>0.41</v>
       </c>
       <c r="N3" s="4" t="n">
         <v>0</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>0.02</v>
+        <v>0.22</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>0.13</v>
+        <v>1.33</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>0.02</v>
+        <v>0.2</v>
       </c>
       <c r="R3" s="4" t="n">
         <v>0</v>
@@ -813,49 +813,49 @@
         <v>0</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>0.38</v>
+        <v>3.85</v>
       </c>
       <c r="U3" s="4" t="n">
+        <v>2.41</v>
+      </c>
+      <c r="V3" s="4" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="W3" s="4" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="X3" s="4" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="Y3" s="4" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="Z3" s="4" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="AA3" s="4" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="AB3" s="4" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AC3" s="4" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="AD3" s="4" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AE3" s="4" t="n">
         <v>0.24</v>
       </c>
-      <c r="V3" s="4" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="W3" s="4" t="n">
-        <v>0.14</v>
-      </c>
-      <c r="X3" s="4" t="n">
-        <v>0.19</v>
-      </c>
-      <c r="Y3" s="4" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="Z3" s="4" t="n">
-        <v>0.27</v>
-      </c>
-      <c r="AA3" s="4" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="AB3" s="4" t="n">
-        <v>0.16</v>
-      </c>
-      <c r="AC3" s="4" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="AD3" s="4" t="n">
-        <v>0.16</v>
-      </c>
-      <c r="AE3" s="4" t="n">
-        <v>0.02</v>
-      </c>
       <c r="AF3" s="4" t="n">
-        <v>0.46</v>
+        <v>4.57</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>0.03</v>
+        <v>0.34</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>0.09</v>
+        <v>0.88</v>
       </c>
     </row>
     <row r="4">
@@ -863,52 +863,52 @@
         <v>44788.5625</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>0.04</v>
+        <v>0.43</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>0.09</v>
+        <v>0.92</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.02</v>
+        <v>0.21</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>0.14</v>
+        <v>1.41</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>0.15</v>
+        <v>1.51</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>0.08</v>
+        <v>0.84</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>0.36</v>
+        <v>3.55</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>0.12</v>
+        <v>1.25</v>
       </c>
       <c r="J4" s="4" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="K4" s="4" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="L4" s="4" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="M4" s="4" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="N4" s="4" t="n">
         <v>0.06</v>
       </c>
-      <c r="K4" s="4" t="n">
-        <v>0.13</v>
-      </c>
-      <c r="L4" s="4" t="n">
-        <v>0.16</v>
-      </c>
-      <c r="M4" s="4" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="N4" s="4" t="n">
-        <v>0.01</v>
-      </c>
       <c r="O4" s="4" t="n">
-        <v>0.04</v>
+        <v>0.37</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>0.12</v>
+        <v>1.16</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>0.04</v>
+        <v>0.39</v>
       </c>
       <c r="R4" s="4" t="n">
         <v>0</v>
@@ -917,49 +917,49 @@
         <v>0</v>
       </c>
       <c r="T4" s="4" t="n">
+        <v>3.88</v>
+      </c>
+      <c r="U4" s="4" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="V4" s="4" t="n">
         <v>0.39</v>
       </c>
-      <c r="U4" s="4" t="n">
-        <v>0.22</v>
-      </c>
-      <c r="V4" s="4" t="n">
-        <v>0.04</v>
-      </c>
       <c r="W4" s="4" t="n">
-        <v>0.12</v>
+        <v>1.24</v>
       </c>
       <c r="X4" s="4" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="Y4" s="4" t="n">
         <v>0.14</v>
       </c>
-      <c r="Y4" s="4" t="n">
-        <v>0.01</v>
-      </c>
       <c r="Z4" s="4" t="n">
-        <v>0.19</v>
+        <v>1.9</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>0.06</v>
+        <v>0.59</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>0.12</v>
+        <v>1.23</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>0.04</v>
+        <v>0.35</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>0.13</v>
+        <v>1.34</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.02</v>
+        <v>0.17</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>0.33</v>
+        <v>3.33</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>0.04</v>
+        <v>0.37</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>0.09</v>
+        <v>0.87</v>
       </c>
     </row>
     <row r="5">
@@ -967,103 +967,103 @@
         <v>44788.56944444445</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>0.97</v>
+        <v>9.68</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>0.77</v>
+        <v>7.73</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.05</v>
+        <v>0.48</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>2.14</v>
+        <v>21.44</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>1.8</v>
+        <v>17.98</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>0.8</v>
+        <v>7.99</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>2.52</v>
+        <v>25.22</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>1.23</v>
+        <v>12.3</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>0.55</v>
+        <v>5.52</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>0.85</v>
+        <v>8.550000000000001</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>0.9399999999999999</v>
+        <v>9.42</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>0.91</v>
+        <v>9.1</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>0.24</v>
+        <v>2.39</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>0.76</v>
+        <v>7.6</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>1.13</v>
+        <v>11.28</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>0.64</v>
+        <v>6.39</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.01</v>
+        <v>0.08</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.03</v>
+        <v>0.25</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>11.26</v>
+        <v>112.62</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>2.18</v>
+        <v>21.84</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>0.7</v>
+        <v>7.04</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>1.46</v>
+        <v>14.6</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>0.83</v>
+        <v>8.33</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>0.11</v>
+        <v>1.06</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>1.3</v>
+        <v>12.97</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>0.64</v>
+        <v>6.42</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>0.62</v>
+        <v>6.16</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>0.64</v>
+        <v>6.44</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>0.96</v>
+        <v>9.6</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.01</v>
+        <v>0.14</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>2.24</v>
+        <v>22.42</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>0.41</v>
+        <v>4.14</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>0.91</v>
+        <v>9.109999999999999</v>
       </c>
     </row>
     <row r="6">

--- a/DATA_goal/Junction_Flooding_457.xlsx
+++ b/DATA_goal/Junction_Flooding_457.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH6"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,39 +443,39 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="6" customWidth="1" min="2" max="2"/>
-    <col width="6" customWidth="1" min="3" max="3"/>
-    <col width="6" customWidth="1" min="4" max="4"/>
-    <col width="7" customWidth="1" min="5" max="5"/>
-    <col width="7" customWidth="1" min="6" max="6"/>
-    <col width="6" customWidth="1" min="7" max="7"/>
-    <col width="7" customWidth="1" min="8" max="8"/>
-    <col width="6" customWidth="1" min="9" max="9"/>
-    <col width="6" customWidth="1" min="10" max="10"/>
-    <col width="6" customWidth="1" min="11" max="11"/>
-    <col width="6" customWidth="1" min="12" max="12"/>
-    <col width="6" customWidth="1" min="13" max="13"/>
-    <col width="6" customWidth="1" min="14" max="14"/>
-    <col width="6" customWidth="1" min="15" max="15"/>
-    <col width="7" customWidth="1" min="16" max="16"/>
-    <col width="6" customWidth="1" min="17" max="17"/>
-    <col width="6" customWidth="1" min="18" max="18"/>
-    <col width="6" customWidth="1" min="19" max="19"/>
-    <col width="8" customWidth="1" min="20" max="20"/>
-    <col width="7" customWidth="1" min="21" max="21"/>
-    <col width="6" customWidth="1" min="22" max="22"/>
-    <col width="6" customWidth="1" min="23" max="23"/>
-    <col width="6" customWidth="1" min="24" max="24"/>
-    <col width="6" customWidth="1" min="25" max="25"/>
-    <col width="7" customWidth="1" min="26" max="26"/>
-    <col width="6" customWidth="1" min="27" max="27"/>
-    <col width="6" customWidth="1" min="28" max="28"/>
-    <col width="6" customWidth="1" min="29" max="29"/>
-    <col width="6" customWidth="1" min="30" max="30"/>
-    <col width="6" customWidth="1" min="31" max="31"/>
-    <col width="7" customWidth="1" min="32" max="32"/>
-    <col width="6" customWidth="1" min="33" max="33"/>
-    <col width="6" customWidth="1" min="34" max="34"/>
+    <col width="8" customWidth="1" min="2" max="2"/>
+    <col width="8" customWidth="1" min="3" max="3"/>
+    <col width="7" customWidth="1" min="4" max="4"/>
+    <col width="8" customWidth="1" min="5" max="5"/>
+    <col width="8" customWidth="1" min="6" max="6"/>
+    <col width="8" customWidth="1" min="7" max="7"/>
+    <col width="8" customWidth="1" min="8" max="8"/>
+    <col width="8" customWidth="1" min="9" max="9"/>
+    <col width="7" customWidth="1" min="10" max="10"/>
+    <col width="8" customWidth="1" min="11" max="11"/>
+    <col width="8" customWidth="1" min="12" max="12"/>
+    <col width="8" customWidth="1" min="13" max="13"/>
+    <col width="7" customWidth="1" min="14" max="14"/>
+    <col width="8" customWidth="1" min="15" max="15"/>
+    <col width="8" customWidth="1" min="16" max="16"/>
+    <col width="8" customWidth="1" min="17" max="17"/>
+    <col width="7" customWidth="1" min="18" max="18"/>
+    <col width="7" customWidth="1" min="19" max="19"/>
+    <col width="9" customWidth="1" min="20" max="20"/>
+    <col width="8" customWidth="1" min="21" max="21"/>
+    <col width="8" customWidth="1" min="22" max="22"/>
+    <col width="8" customWidth="1" min="23" max="23"/>
+    <col width="8" customWidth="1" min="24" max="24"/>
+    <col width="7" customWidth="1" min="25" max="25"/>
+    <col width="8" customWidth="1" min="26" max="26"/>
+    <col width="8" customWidth="1" min="27" max="27"/>
+    <col width="7" customWidth="1" min="28" max="28"/>
+    <col width="8" customWidth="1" min="29" max="29"/>
+    <col width="8" customWidth="1" min="30" max="30"/>
+    <col width="7" customWidth="1" min="31" max="31"/>
+    <col width="8" customWidth="1" min="32" max="32"/>
+    <col width="7" customWidth="1" min="33" max="33"/>
+    <col width="8" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -652,522 +652,418 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>44788.54861111111</v>
+        <v>45138.50694444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>4.28</v>
+        <v>15.854</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>5.27</v>
+        <v>10.494</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>0.77</v>
+        <v>3.735</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>10.41</v>
+        <v>33.762</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>9.720000000000001</v>
+        <v>26.097</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>5.08</v>
+        <v>12.381</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>10.36</v>
+        <v>37.784</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>6.86</v>
+        <v>19.197</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>3.66</v>
+        <v>7.826</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>6.22</v>
+        <v>11.635</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>7.25</v>
+        <v>13.329</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>4.31</v>
+        <v>13.955</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>0.97</v>
+        <v>3.981</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>3.63</v>
+        <v>12.407</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>6.54</v>
+        <v>17.155</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>2.61</v>
+        <v>10.858</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>0.12</v>
+        <v>3.133</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>0.05</v>
+        <v>2.01</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>60.45</v>
+        <v>181.475</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>12.19</v>
+        <v>34.412</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>3.56</v>
+        <v>11.452</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>7.36</v>
+        <v>22.298</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>6.73</v>
+        <v>11.285</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>0.83</v>
+        <v>3.17</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>5.7</v>
+        <v>19.349</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>3.6</v>
+        <v>10.115</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>5.54</v>
+        <v>9.106</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>2.24</v>
+        <v>10.918</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>6.73</v>
+        <v>14.036</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>0.37</v>
+        <v>3.313</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>8.52</v>
+        <v>33.905</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>2.17</v>
+        <v>6.108</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>5.2</v>
+        <v>14.317</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>44788.55555555555</v>
+        <v>45138.51388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>0.22</v>
+        <v>12.491</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>1.02</v>
+        <v>8.699</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0.26</v>
+        <v>1.645</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>1.06</v>
+        <v>27.032</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>1.4</v>
+        <v>21.31</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>0.93</v>
+        <v>9.747</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>4.69</v>
+        <v>37.98</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>1.22</v>
+        <v>15.125</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>0.82</v>
+        <v>6.45</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>1.51</v>
+        <v>9.393000000000001</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>2.01</v>
+        <v>10.785</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>0.41</v>
+        <v>11.338</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>0</v>
+        <v>3.141</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>0.22</v>
+        <v>9.775</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>1.33</v>
+        <v>13.7</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>0.2</v>
+        <v>8.571</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>0</v>
+        <v>1.445</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0</v>
+        <v>0.954</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>3.85</v>
+        <v>141.466</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>2.41</v>
+        <v>27.379</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>0.29</v>
+        <v>9.023</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>1.43</v>
+        <v>17.975</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>1.93</v>
+        <v>9.304</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>0.18</v>
+        <v>1.99</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>2.67</v>
+        <v>18.511</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>0.5600000000000001</v>
+        <v>7.97</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>1.61</v>
+        <v>7.212</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>0.21</v>
+        <v>8.532999999999999</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>1.58</v>
+        <v>11.335</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>0.24</v>
+        <v>1.246</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>4.57</v>
+        <v>34.909</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>0.34</v>
+        <v>4.887</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>0.88</v>
+        <v>11.281</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>44788.5625</v>
+        <v>45138.52083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>0.43</v>
+        <v>3.843</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>0.92</v>
+        <v>2.436</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.21</v>
+        <v>0.887</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>1.41</v>
+        <v>8.302</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>1.51</v>
+        <v>6.126</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>0.84</v>
+        <v>2.952</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>3.55</v>
+        <v>15.843</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>1.25</v>
+        <v>4.654</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>0.64</v>
+        <v>1.917</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>1.25</v>
+        <v>2.578</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>1.64</v>
+        <v>3.31</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>0.59</v>
+        <v>3.469</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>0.06</v>
+        <v>0.976</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>0.37</v>
+        <v>3.008</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>1.16</v>
+        <v>4.181</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>0.39</v>
+        <v>2.848</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0</v>
+        <v>0.907</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0</v>
+        <v>0.457</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>3.88</v>
+        <v>38.501</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>2.16</v>
+        <v>8.666</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>0.39</v>
+        <v>2.776</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>1.24</v>
+        <v>5.53</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>1.44</v>
+        <v>2.778</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>0.14</v>
+        <v>0.855</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>1.9</v>
+        <v>7.256</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>0.59</v>
+        <v>2.452</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>1.23</v>
+        <v>2.325</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>0.35</v>
+        <v>2.743</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>1.34</v>
+        <v>3.469</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.17</v>
+        <v>0.766</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>3.33</v>
+        <v>14.914</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>0.37</v>
+        <v>1.397</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>0.87</v>
+        <v>3.473</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>44788.56944444445</v>
+        <v>45138.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>9.68</v>
+        <v>1.92</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>7.73</v>
+        <v>1.11</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.48</v>
+        <v>0.61</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>21.44</v>
+        <v>4.15</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>17.98</v>
+        <v>2.86</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>7.99</v>
+        <v>1.45</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>25.22</v>
+        <v>8.34</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>12.3</v>
+        <v>2.33</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>5.52</v>
+        <v>0.91</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>8.550000000000001</v>
+        <v>1.14</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>9.42</v>
+        <v>1.66</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>9.1</v>
+        <v>1.74</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>2.39</v>
+        <v>0.49</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>7.6</v>
+        <v>1.5</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>11.28</v>
+        <v>2.05</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>6.39</v>
+        <v>1.53</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.08</v>
+        <v>0.67</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.25</v>
+        <v>0.3</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>112.62</v>
+        <v>15.59</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>21.84</v>
+        <v>4.36</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>7.04</v>
+        <v>1.39</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>14.6</v>
+        <v>2.69</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>8.33</v>
+        <v>1.34</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>1.06</v>
+        <v>0.54</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>12.97</v>
+        <v>3.71</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>6.42</v>
+        <v>1.23</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>6.16</v>
+        <v>1.22</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>6.44</v>
+        <v>1.43</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>9.6</v>
+        <v>1.73</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.14</v>
+        <v>0.55</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>22.42</v>
+        <v>7.85</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>4.14</v>
+        <v>0.65</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>9.109999999999999</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>44788.57637731481</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>4.94</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>0.29</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>11.09</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>9.369999999999999</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>4.19</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>17.59</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>6.47</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>2.95</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>4.57</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>5.11</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>4.72</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>3.89</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>5.99</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>3.32</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>55.5</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>11.69</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>3.61</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>7.81</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>4.54</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>0.5600000000000001</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>8.720000000000001</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>3.36</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>3.37</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>3.32</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>5.12</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>16.23</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>2.17</v>
-      </c>
-      <c r="AH6" s="4" t="n">
-        <v>4.77</v>
+        <v>1.74</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_457.xlsx
+++ b/DATA_goal/Junction_Flooding_457.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH5"/>
+  <dimension ref="A1:AH6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,39 +443,39 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="8" customWidth="1" min="2" max="2"/>
-    <col width="8" customWidth="1" min="3" max="3"/>
+    <col width="7" customWidth="1" min="2" max="2"/>
+    <col width="7" customWidth="1" min="3" max="3"/>
     <col width="7" customWidth="1" min="4" max="4"/>
     <col width="8" customWidth="1" min="5" max="5"/>
-    <col width="8" customWidth="1" min="6" max="6"/>
-    <col width="8" customWidth="1" min="7" max="7"/>
+    <col width="7" customWidth="1" min="6" max="6"/>
+    <col width="7" customWidth="1" min="7" max="7"/>
     <col width="8" customWidth="1" min="8" max="8"/>
     <col width="8" customWidth="1" min="9" max="9"/>
     <col width="7" customWidth="1" min="10" max="10"/>
-    <col width="8" customWidth="1" min="11" max="11"/>
-    <col width="8" customWidth="1" min="12" max="12"/>
-    <col width="8" customWidth="1" min="13" max="13"/>
+    <col width="7" customWidth="1" min="11" max="11"/>
+    <col width="7" customWidth="1" min="12" max="12"/>
+    <col width="7" customWidth="1" min="13" max="13"/>
     <col width="7" customWidth="1" min="14" max="14"/>
-    <col width="8" customWidth="1" min="15" max="15"/>
+    <col width="7" customWidth="1" min="15" max="15"/>
     <col width="8" customWidth="1" min="16" max="16"/>
-    <col width="8" customWidth="1" min="17" max="17"/>
+    <col width="7" customWidth="1" min="17" max="17"/>
     <col width="7" customWidth="1" min="18" max="18"/>
     <col width="7" customWidth="1" min="19" max="19"/>
-    <col width="9" customWidth="1" min="20" max="20"/>
+    <col width="8" customWidth="1" min="20" max="20"/>
     <col width="8" customWidth="1" min="21" max="21"/>
-    <col width="8" customWidth="1" min="22" max="22"/>
+    <col width="7" customWidth="1" min="22" max="22"/>
     <col width="8" customWidth="1" min="23" max="23"/>
-    <col width="8" customWidth="1" min="24" max="24"/>
+    <col width="7" customWidth="1" min="24" max="24"/>
     <col width="7" customWidth="1" min="25" max="25"/>
     <col width="8" customWidth="1" min="26" max="26"/>
-    <col width="8" customWidth="1" min="27" max="27"/>
+    <col width="7" customWidth="1" min="27" max="27"/>
     <col width="7" customWidth="1" min="28" max="28"/>
-    <col width="8" customWidth="1" min="29" max="29"/>
-    <col width="8" customWidth="1" min="30" max="30"/>
+    <col width="7" customWidth="1" min="29" max="29"/>
+    <col width="7" customWidth="1" min="30" max="30"/>
     <col width="7" customWidth="1" min="31" max="31"/>
     <col width="8" customWidth="1" min="32" max="32"/>
     <col width="7" customWidth="1" min="33" max="33"/>
-    <col width="8" customWidth="1" min="34" max="34"/>
+    <col width="7" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -652,418 +652,522 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>45138.50694444445</v>
+        <v>44788.54861111111</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>15.854</v>
+        <v>4.284</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>10.494</v>
+        <v>5.265</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>3.735</v>
+        <v>0.768</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>33.762</v>
+        <v>10.407</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>26.097</v>
+        <v>9.715</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>12.381</v>
+        <v>5.079</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>37.784</v>
+        <v>10.361</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>19.197</v>
+        <v>6.858</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>7.826</v>
+        <v>3.662</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>11.635</v>
+        <v>6.216</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>13.329</v>
+        <v>7.246</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>13.955</v>
+        <v>4.306</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>3.981</v>
+        <v>0.973</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>12.407</v>
+        <v>3.629</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>17.155</v>
+        <v>6.538</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>10.858</v>
+        <v>2.613</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>3.133</v>
+        <v>0.117</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>2.01</v>
+        <v>0.053</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>181.475</v>
+        <v>60.452</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>34.412</v>
+        <v>12.195</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>11.452</v>
+        <v>3.56</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>22.298</v>
+        <v>7.364</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>11.285</v>
+        <v>6.727</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>3.17</v>
+        <v>0.825</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>19.349</v>
+        <v>5.701</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>10.115</v>
+        <v>3.6</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>9.106</v>
+        <v>5.538</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>10.918</v>
+        <v>2.243</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>14.036</v>
+        <v>6.732</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>3.313</v>
+        <v>0.372</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>33.905</v>
+        <v>8.518000000000001</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>6.108</v>
+        <v>2.17</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>14.317</v>
+        <v>5.204</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>45138.51388888889</v>
+        <v>44788.55555555555</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>12.491</v>
+        <v>0.225</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>8.699</v>
+        <v>1.015</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>1.645</v>
+        <v>0.262</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>27.032</v>
+        <v>1.06</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>21.31</v>
+        <v>1.397</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>9.747</v>
+        <v>0.9330000000000001</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>37.98</v>
+        <v>4.689</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>15.125</v>
+        <v>1.223</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>6.45</v>
+        <v>0.82</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>9.393000000000001</v>
+        <v>1.509</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>10.785</v>
+        <v>2.014</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>11.338</v>
+        <v>0.41</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>3.141</v>
+        <v>0</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>9.775</v>
+        <v>0.221</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>13.7</v>
+        <v>1.328</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>8.571</v>
+        <v>0.2</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>1.445</v>
+        <v>0</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.954</v>
+        <v>0</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>141.466</v>
+        <v>3.85</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>27.379</v>
+        <v>2.412</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>9.023</v>
+        <v>0.291</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>17.975</v>
+        <v>1.43</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>9.304</v>
+        <v>1.925</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>1.99</v>
+        <v>0.176</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>18.511</v>
+        <v>2.669</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>7.97</v>
+        <v>0.5590000000000001</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>7.212</v>
+        <v>1.612</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>8.532999999999999</v>
+        <v>0.21</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>11.335</v>
+        <v>1.575</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>1.246</v>
+        <v>0.237</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>34.909</v>
+        <v>4.565</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>4.887</v>
+        <v>0.338</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>11.281</v>
+        <v>0.879</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>45138.52083333334</v>
+        <v>44788.5625</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>3.843</v>
+        <v>0.434</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>2.436</v>
+        <v>0.925</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.887</v>
+        <v>0.207</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>8.302</v>
+        <v>1.412</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>6.126</v>
+        <v>1.507</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>2.952</v>
+        <v>0.84</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>15.843</v>
+        <v>3.552</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>4.654</v>
+        <v>1.246</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>1.917</v>
+        <v>0.636</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>2.578</v>
+        <v>1.254</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>3.31</v>
+        <v>1.644</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>3.469</v>
+        <v>0.585</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>0.976</v>
+        <v>0.057</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>3.008</v>
+        <v>0.373</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>4.181</v>
+        <v>1.157</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>2.848</v>
+        <v>0.39</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.907</v>
+        <v>0</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.457</v>
+        <v>0</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>38.501</v>
+        <v>3.875</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>8.666</v>
+        <v>2.16</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>2.776</v>
+        <v>0.389</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>5.53</v>
+        <v>1.236</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>2.778</v>
+        <v>1.444</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>0.855</v>
+        <v>0.137</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>7.256</v>
+        <v>1.902</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>2.452</v>
+        <v>0.585</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>2.325</v>
+        <v>1.229</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>2.743</v>
+        <v>0.351</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>3.469</v>
+        <v>1.337</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.766</v>
+        <v>0.175</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>14.914</v>
+        <v>3.333</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>1.397</v>
+        <v>0.369</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>3.473</v>
+        <v>0.868</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>45138.52777777778</v>
+        <v>44788.56944444445</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>1.92</v>
+        <v>9.676</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>1.11</v>
+        <v>7.735</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.61</v>
+        <v>0.477</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>4.15</v>
+        <v>21.442</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>2.86</v>
+        <v>17.98</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>1.45</v>
+        <v>7.989</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>8.34</v>
+        <v>25.22</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>2.33</v>
+        <v>12.297</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>0.91</v>
+        <v>5.523</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>1.14</v>
+        <v>8.547000000000001</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>1.66</v>
+        <v>9.422000000000001</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>1.74</v>
+        <v>9.105</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>0.49</v>
+        <v>2.388</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>1.5</v>
+        <v>7.601</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>2.05</v>
+        <v>11.282</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>1.53</v>
+        <v>6.393</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.67</v>
+        <v>0.077</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.3</v>
+        <v>0.252</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>15.59</v>
+        <v>112.62</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>4.36</v>
+        <v>21.837</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>1.39</v>
+        <v>7.041</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>2.69</v>
+        <v>14.604</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>1.34</v>
+        <v>8.334</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>0.54</v>
+        <v>1.058</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>3.71</v>
+        <v>12.971</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>1.23</v>
+        <v>6.42</v>
       </c>
       <c r="AB5" s="4" t="n">
+        <v>6.157</v>
+      </c>
+      <c r="AC5" s="4" t="n">
+        <v>6.437</v>
+      </c>
+      <c r="AD5" s="4" t="n">
+        <v>9.599</v>
+      </c>
+      <c r="AE5" s="4" t="n">
+        <v>0.138</v>
+      </c>
+      <c r="AF5" s="4" t="n">
+        <v>22.424</v>
+      </c>
+      <c r="AG5" s="4" t="n">
+        <v>4.141</v>
+      </c>
+      <c r="AH5" s="4" t="n">
+        <v>9.109999999999999</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="3" t="n">
+        <v>44788.57637731481</v>
+      </c>
+      <c r="B6" s="4" t="n">
+        <v>4.94</v>
+      </c>
+      <c r="C6" s="4" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="D6" s="4" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="E6" s="4" t="n">
+        <v>11.09</v>
+      </c>
+      <c r="F6" s="4" t="n">
+        <v>9.369999999999999</v>
+      </c>
+      <c r="G6" s="4" t="n">
+        <v>4.19</v>
+      </c>
+      <c r="H6" s="4" t="n">
+        <v>17.59</v>
+      </c>
+      <c r="I6" s="4" t="n">
+        <v>6.47</v>
+      </c>
+      <c r="J6" s="4" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="K6" s="4" t="n">
+        <v>4.57</v>
+      </c>
+      <c r="L6" s="4" t="n">
+        <v>5.11</v>
+      </c>
+      <c r="M6" s="4" t="n">
+        <v>4.72</v>
+      </c>
+      <c r="N6" s="4" t="n">
         <v>1.22</v>
       </c>
-      <c r="AC5" s="4" t="n">
-        <v>1.43</v>
-      </c>
-      <c r="AD5" s="4" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="AE5" s="4" t="n">
-        <v>0.55</v>
-      </c>
-      <c r="AF5" s="4" t="n">
-        <v>7.85</v>
-      </c>
-      <c r="AG5" s="4" t="n">
-        <v>0.65</v>
-      </c>
-      <c r="AH5" s="4" t="n">
-        <v>1.74</v>
+      <c r="O6" s="4" t="n">
+        <v>3.89</v>
+      </c>
+      <c r="P6" s="4" t="n">
+        <v>5.99</v>
+      </c>
+      <c r="Q6" s="4" t="n">
+        <v>3.32</v>
+      </c>
+      <c r="R6" s="4" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="S6" s="4" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="T6" s="4" t="n">
+        <v>55.5</v>
+      </c>
+      <c r="U6" s="4" t="n">
+        <v>11.69</v>
+      </c>
+      <c r="V6" s="4" t="n">
+        <v>3.61</v>
+      </c>
+      <c r="W6" s="4" t="n">
+        <v>7.81</v>
+      </c>
+      <c r="X6" s="4" t="n">
+        <v>4.54</v>
+      </c>
+      <c r="Y6" s="4" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="Z6" s="4" t="n">
+        <v>8.720000000000001</v>
+      </c>
+      <c r="AA6" s="4" t="n">
+        <v>3.36</v>
+      </c>
+      <c r="AB6" s="4" t="n">
+        <v>3.37</v>
+      </c>
+      <c r="AC6" s="4" t="n">
+        <v>3.32</v>
+      </c>
+      <c r="AD6" s="4" t="n">
+        <v>5.12</v>
+      </c>
+      <c r="AE6" s="4" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="AF6" s="4" t="n">
+        <v>16.23</v>
+      </c>
+      <c r="AG6" s="4" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="AH6" s="4" t="n">
+        <v>4.77</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_457.xlsx
+++ b/DATA_goal/Junction_Flooding_457.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH6"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,39 +443,39 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="7" customWidth="1" min="2" max="2"/>
-    <col width="7" customWidth="1" min="3" max="3"/>
+    <col width="8" customWidth="1" min="2" max="2"/>
+    <col width="8" customWidth="1" min="3" max="3"/>
     <col width="7" customWidth="1" min="4" max="4"/>
     <col width="8" customWidth="1" min="5" max="5"/>
-    <col width="7" customWidth="1" min="6" max="6"/>
-    <col width="7" customWidth="1" min="7" max="7"/>
+    <col width="8" customWidth="1" min="6" max="6"/>
+    <col width="8" customWidth="1" min="7" max="7"/>
     <col width="8" customWidth="1" min="8" max="8"/>
     <col width="8" customWidth="1" min="9" max="9"/>
     <col width="7" customWidth="1" min="10" max="10"/>
-    <col width="7" customWidth="1" min="11" max="11"/>
-    <col width="7" customWidth="1" min="12" max="12"/>
-    <col width="7" customWidth="1" min="13" max="13"/>
+    <col width="8" customWidth="1" min="11" max="11"/>
+    <col width="8" customWidth="1" min="12" max="12"/>
+    <col width="8" customWidth="1" min="13" max="13"/>
     <col width="7" customWidth="1" min="14" max="14"/>
-    <col width="7" customWidth="1" min="15" max="15"/>
+    <col width="8" customWidth="1" min="15" max="15"/>
     <col width="8" customWidth="1" min="16" max="16"/>
-    <col width="7" customWidth="1" min="17" max="17"/>
+    <col width="8" customWidth="1" min="17" max="17"/>
     <col width="7" customWidth="1" min="18" max="18"/>
     <col width="7" customWidth="1" min="19" max="19"/>
-    <col width="8" customWidth="1" min="20" max="20"/>
+    <col width="9" customWidth="1" min="20" max="20"/>
     <col width="8" customWidth="1" min="21" max="21"/>
-    <col width="7" customWidth="1" min="22" max="22"/>
+    <col width="8" customWidth="1" min="22" max="22"/>
     <col width="8" customWidth="1" min="23" max="23"/>
-    <col width="7" customWidth="1" min="24" max="24"/>
+    <col width="8" customWidth="1" min="24" max="24"/>
     <col width="7" customWidth="1" min="25" max="25"/>
     <col width="8" customWidth="1" min="26" max="26"/>
-    <col width="7" customWidth="1" min="27" max="27"/>
+    <col width="8" customWidth="1" min="27" max="27"/>
     <col width="7" customWidth="1" min="28" max="28"/>
-    <col width="7" customWidth="1" min="29" max="29"/>
-    <col width="7" customWidth="1" min="30" max="30"/>
+    <col width="8" customWidth="1" min="29" max="29"/>
+    <col width="8" customWidth="1" min="30" max="30"/>
     <col width="7" customWidth="1" min="31" max="31"/>
     <col width="8" customWidth="1" min="32" max="32"/>
     <col width="7" customWidth="1" min="33" max="33"/>
-    <col width="7" customWidth="1" min="34" max="34"/>
+    <col width="8" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -652,522 +652,418 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>44788.54861111111</v>
+        <v>45138.50694444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>4.284</v>
+        <v>15.854</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>5.265</v>
+        <v>10.494</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>0.768</v>
+        <v>3.735</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>10.407</v>
+        <v>33.762</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>9.715</v>
+        <v>26.097</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>5.079</v>
+        <v>12.381</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>10.361</v>
+        <v>37.784</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>6.858</v>
+        <v>19.197</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>3.662</v>
+        <v>7.826</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>6.216</v>
+        <v>11.635</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>7.246</v>
+        <v>13.329</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>4.306</v>
+        <v>13.955</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>0.973</v>
+        <v>3.981</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>3.629</v>
+        <v>12.407</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>6.538</v>
+        <v>17.155</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>2.613</v>
+        <v>10.858</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>0.117</v>
+        <v>3.133</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>0.053</v>
+        <v>2.01</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>60.452</v>
+        <v>181.475</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>12.195</v>
+        <v>34.412</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>3.56</v>
+        <v>11.452</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>7.364</v>
+        <v>22.298</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>6.727</v>
+        <v>11.285</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>0.825</v>
+        <v>3.17</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>5.701</v>
+        <v>19.349</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>3.6</v>
+        <v>10.115</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>5.538</v>
+        <v>9.106</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>2.243</v>
+        <v>10.918</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>6.732</v>
+        <v>14.036</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>0.372</v>
+        <v>3.313</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>8.518000000000001</v>
+        <v>33.905</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>2.17</v>
+        <v>6.108</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>5.204</v>
+        <v>14.317</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>44788.55555555555</v>
+        <v>45138.51388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>0.225</v>
+        <v>12.491</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>1.015</v>
+        <v>8.699</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0.262</v>
+        <v>1.645</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>1.06</v>
+        <v>27.032</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>1.397</v>
+        <v>21.31</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>0.9330000000000001</v>
+        <v>9.747</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>4.689</v>
+        <v>37.98</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>1.223</v>
+        <v>15.125</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>0.82</v>
+        <v>6.45</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>1.509</v>
+        <v>9.393000000000001</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>2.014</v>
+        <v>10.785</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>0.41</v>
+        <v>11.338</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>0</v>
+        <v>3.141</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>0.221</v>
+        <v>9.775</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>1.328</v>
+        <v>13.7</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>0.2</v>
+        <v>8.571</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>0</v>
+        <v>1.445</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0</v>
+        <v>0.954</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>3.85</v>
+        <v>141.466</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>2.412</v>
+        <v>27.379</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>0.291</v>
+        <v>9.023</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>1.43</v>
+        <v>17.975</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>1.925</v>
+        <v>9.304</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>0.176</v>
+        <v>1.99</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>2.669</v>
+        <v>18.511</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>0.5590000000000001</v>
+        <v>7.97</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>1.612</v>
+        <v>7.212</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>0.21</v>
+        <v>8.532999999999999</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>1.575</v>
+        <v>11.335</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>0.237</v>
+        <v>1.246</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>4.565</v>
+        <v>34.909</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>0.338</v>
+        <v>4.887</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>0.879</v>
+        <v>11.281</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>44788.5625</v>
+        <v>45138.52083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>0.434</v>
+        <v>3.843</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>0.925</v>
+        <v>2.436</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.207</v>
+        <v>0.887</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>1.412</v>
+        <v>8.302</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>1.507</v>
+        <v>6.126</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>0.84</v>
+        <v>2.952</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>3.552</v>
+        <v>15.843</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>1.246</v>
+        <v>4.654</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>0.636</v>
+        <v>1.917</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>1.254</v>
+        <v>2.578</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>1.644</v>
+        <v>3.31</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>0.585</v>
+        <v>3.469</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>0.057</v>
+        <v>0.976</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>0.373</v>
+        <v>3.008</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>1.157</v>
+        <v>4.181</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>0.39</v>
+        <v>2.848</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0</v>
+        <v>0.907</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0</v>
+        <v>0.457</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>3.875</v>
+        <v>38.501</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>2.16</v>
+        <v>8.666</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>0.389</v>
+        <v>2.776</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>1.236</v>
+        <v>5.53</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>1.444</v>
+        <v>2.778</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>0.137</v>
+        <v>0.855</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>1.902</v>
+        <v>7.256</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>0.585</v>
+        <v>2.452</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>1.229</v>
+        <v>2.325</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>0.351</v>
+        <v>2.743</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>1.337</v>
+        <v>3.469</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.175</v>
+        <v>0.766</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>3.333</v>
+        <v>14.914</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>0.369</v>
+        <v>1.397</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>0.868</v>
+        <v>3.473</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>44788.56944444445</v>
+        <v>45138.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>9.676</v>
+        <v>1.92</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>7.735</v>
+        <v>1.11</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.477</v>
+        <v>0.61</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>21.442</v>
+        <v>4.15</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>17.98</v>
+        <v>2.86</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>7.989</v>
+        <v>1.45</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>25.22</v>
+        <v>8.34</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>12.297</v>
+        <v>2.33</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>5.523</v>
+        <v>0.91</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>8.547000000000001</v>
+        <v>1.14</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>9.422000000000001</v>
+        <v>1.66</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>9.105</v>
+        <v>1.74</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>2.388</v>
+        <v>0.49</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>7.601</v>
+        <v>1.5</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>11.282</v>
+        <v>2.05</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>6.393</v>
+        <v>1.53</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.077</v>
+        <v>0.67</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.252</v>
+        <v>0.3</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>112.62</v>
+        <v>15.59</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>21.837</v>
+        <v>4.36</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>7.041</v>
+        <v>1.39</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>14.604</v>
+        <v>2.69</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>8.334</v>
+        <v>1.34</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>1.058</v>
+        <v>0.54</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>12.971</v>
+        <v>3.71</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>6.42</v>
+        <v>1.23</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>6.157</v>
+        <v>1.22</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>6.437</v>
+        <v>1.43</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>9.599</v>
+        <v>1.73</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.138</v>
+        <v>0.55</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>22.424</v>
+        <v>7.85</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>4.141</v>
+        <v>0.65</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>9.109999999999999</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>44788.57637731481</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>4.94</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>0.29</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>11.09</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>9.369999999999999</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>4.19</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>17.59</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>6.47</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>2.95</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>4.57</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>5.11</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>4.72</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>3.89</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>5.99</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>3.32</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>55.5</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>11.69</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>3.61</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>7.81</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>4.54</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>0.5600000000000001</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>8.720000000000001</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>3.36</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>3.37</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>3.32</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>5.12</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>16.23</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>2.17</v>
-      </c>
-      <c r="AH6" s="4" t="n">
-        <v>4.77</v>
+        <v>1.74</v>
       </c>
     </row>
   </sheetData>
